--- a/assets/generated/model4/TardinessAtCustomer.xlsx
+++ b/assets/generated/model4/TardinessAtCustomer.xlsx
@@ -353,42 +353,42 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>78.19999999999879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>120.1999999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>87.19999999999891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>72.19999999999879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>142.1999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:1">

--- a/assets/generated/model4/TardinessAtCustomer.xlsx
+++ b/assets/generated/model4/TardinessAtCustomer.xlsx
@@ -353,12 +353,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0</v>
+        <v>86.5999999999986</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -368,12 +368,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0</v>
+        <v>24.19999999999885</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0</v>
+        <v>25.19999999999885</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -383,12 +383,12 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0</v>
+        <v>30.19999999999891</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0</v>
+        <v>100.5999999999985</v>
       </c>
     </row>
     <row r="10" spans="1:1">
